--- a/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01064478138775393</v>
+        <v>0.01053105931575919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2159533784226298</v>
+        <v>0.2184395477754984</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01801627487041956</v>
+        <v>0.01675675154763359</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1496060088432494</v>
+        <v>0.1448187265164135</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009770550654942634</v>
+        <v>0.00972381579361942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01461617062569745</v>
+        <v>0.01406981967737359</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2076456545262214</v>
+        <v>0.2094404928243086</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0539359987387</v>
+        <v>0.05411047161667373</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09052532105830698</v>
+        <v>0.1013271733875136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08681435407086725</v>
+        <v>0.07885246497261353</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3619384198017024</v>
+        <v>0.3660120622824315</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1220786223350944</v>
+        <v>0.1244573127924233</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1716397653630841</v>
+        <v>0.1731573976865979</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1646770499820094</v>
+        <v>0.1433095256732466</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2969386915547657</v>
+        <v>0.2964940022373806</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05390031319595127</v>
+        <v>0.04778353132434193</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09256770336777045</v>
+        <v>0.08863415241716413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08942634609677229</v>
+        <v>0.08413533868307643</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3141090161686771</v>
+        <v>0.318036267396203</v>
       </c>
     </row>
     <row r="7">
@@ -848,34 +848,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01246502138605575</v>
+        <v>0.0123640120136042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2650741542867344</v>
+        <v>0.2544389966037139</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04140095989196173</v>
+        <v>0.04447803644748257</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1062222784697677</v>
+        <v>0.100567017386557</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08404890702406782</v>
+        <v>0.1077233723005528</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1650789052445845</v>
+        <v>0.1653277828431425</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01202186863215495</v>
+        <v>0.01135692686260479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03387196769610252</v>
+        <v>0.03189104815790487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05054772803316825</v>
+        <v>0.05042138704432948</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2416344319223646</v>
+        <v>0.2410622653506832</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.06314169551191304</v>
+        <v>0.05332143251685301</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1048962307877127</v>
+        <v>0.1057202487972282</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4085158423305876</v>
+        <v>0.4066955266237136</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3748821373297966</v>
+        <v>0.3579650718837518</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4686742404482028</v>
+        <v>0.4419339337273553</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3839868842959871</v>
+        <v>0.4062700636587401</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3207927819930383</v>
+        <v>0.3194703297352162</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1069648792671952</v>
+        <v>0.1104104879250066</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.145797162348789</v>
+        <v>0.1456924055239855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1681666320094992</v>
+        <v>0.1756017387474371</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3537127819865046</v>
+        <v>0.3564908498647124</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.08879158300149598</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2258526264778211</v>
+        <v>0.225852626477821</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01258339204039525</v>
@@ -979,35 +979,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03646074351038636</v>
+        <v>0.0345715117804418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03701811845304086</v>
+        <v>0.03513512393608688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2572700501841945</v>
+        <v>0.2569549850376984</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02131956923554955</v>
+        <v>0.02046761379513705</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1539712348921838</v>
+        <v>0.1472856449305197</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03362454363166722</v>
+        <v>0.03335165763144008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03942716792822343</v>
+        <v>0.04120271395051785</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2404467095785773</v>
+        <v>0.243006296131183</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04846769626263556</v>
+        <v>0.05065951550022015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1253649393419072</v>
+        <v>0.1200925434194947</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1254652616727516</v>
+        <v>0.1163607065529236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3957911621983699</v>
+        <v>0.4024148054281478</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.1051934801249375</v>
+        <v>0.1188217143797197</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2263992906509738</v>
+        <v>0.2418309466178503</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3240262997544086</v>
+        <v>0.3131422194739562</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03998233959297853</v>
+        <v>0.03802836116284331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1004021750744795</v>
+        <v>0.1065902992105228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1216593229687479</v>
+        <v>0.1182955472966474</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3515667301599475</v>
+        <v>0.3549513901571093</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.08817653540660399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2828551675660621</v>
+        <v>0.2828551675660622</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06709008476068073</v>
@@ -1085,7 +1085,7 @@
         <v>0.1787964913543117</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2676419362787261</v>
+        <v>0.267641936278726</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02212141538344857</v>
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002396329534045274</v>
+        <v>0.002407028724360741</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04680777864223359</v>
+        <v>0.04857300604446088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06150652731109875</v>
+        <v>0.06105751204807459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2409239737483094</v>
+        <v>0.2405350780894124</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03117231649685439</v>
+        <v>0.03318007870554453</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2078204729420185</v>
+        <v>0.210267606907614</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1239641690999603</v>
+        <v>0.1189905960468007</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2140813900635406</v>
+        <v>0.2107025292771076</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01181192121754817</v>
+        <v>0.01063236360013596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09880493940115218</v>
+        <v>0.09497196370922617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08855857881685343</v>
+        <v>0.08923150988469362</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2416542381910613</v>
+        <v>0.2432515259357559</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02192208766453098</v>
+        <v>0.02142279718844722</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.105907649578074</v>
+        <v>0.1096144707727522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1303851556368728</v>
+        <v>0.1234454732102234</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3321164543564078</v>
+        <v>0.3328722460644704</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1261321451094444</v>
+        <v>0.1273009011515643</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3849713617107789</v>
+        <v>0.387090961950164</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2625151412443065</v>
+        <v>0.2465049185125825</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3283728151806627</v>
+        <v>0.3292415561219231</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03704777056601402</v>
+        <v>0.03859396892500792</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1641231177397332</v>
+        <v>0.1606162471083125</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.150463574666375</v>
+        <v>0.1465336328620646</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.318511083863168</v>
+        <v>0.3140721909842921</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.04489244595407412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3461111595218014</v>
+        <v>0.3461111595218013</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02630802848245494</v>
@@ -1247,37 +1247,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03674423572882823</v>
+        <v>0.03966805554562581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02030290569376681</v>
+        <v>0.02096884524304672</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2819132186423398</v>
+        <v>0.2775390073486958</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05124817822738646</v>
+        <v>0.05380891103973796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08212349122188475</v>
+        <v>0.08198665542189772</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2151229262935337</v>
+        <v>0.2093627423447767</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00468705893696859</v>
+        <v>0.004731140535378008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05669729487843915</v>
+        <v>0.05594992072377578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06154049552904874</v>
+        <v>0.05939264090641036</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2547901739354035</v>
+        <v>0.2526183933463823</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05230640319782517</v>
+        <v>0.05387650035767847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1334490775068757</v>
+        <v>0.1256418196173092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08552309037400227</v>
+        <v>0.08174366594342207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4215956024278442</v>
+        <v>0.4208845298880815</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09372369039612799</v>
+        <v>0.1016319244515361</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1254350550220807</v>
+        <v>0.1267955893665184</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1854865321039914</v>
+        <v>0.1827827000089643</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2988505867529498</v>
+        <v>0.2972144915340976</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05534787132112843</v>
+        <v>0.0580408667209685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1124452536727232</v>
+        <v>0.1147652666822245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1199693891823662</v>
+        <v>0.1192023551557854</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3317759658930273</v>
+        <v>0.3298561962960135</v>
       </c>
     </row>
     <row r="19">
@@ -1381,37 +1381,37 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.05813292645159304</v>
+        <v>0.06195533810756466</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2757181493757762</v>
+        <v>0.3070338524706953</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02105453388805031</v>
+        <v>0.02095277368082094</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07978875135514313</v>
+        <v>0.07898186175581264</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1170077221202212</v>
+        <v>0.1146817706985631</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07734522475007041</v>
+        <v>0.07770118171658039</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02177382777237322</v>
+        <v>0.02067107264105109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0835916602357475</v>
+        <v>0.08628813968174981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1227206826558302</v>
+        <v>0.1199655750142329</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09954985861364138</v>
+        <v>0.09786843596234686</v>
       </c>
     </row>
     <row r="21">
@@ -1423,37 +1423,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.568883982102795</v>
+        <v>0.5307426372215475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6192361382149647</v>
+        <v>0.6186442597853062</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8668757820330474</v>
+        <v>0.8827430329366807</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07246690380375374</v>
+        <v>0.07125019182059616</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1586818372054435</v>
+        <v>0.1543136203454237</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2086284032342016</v>
+        <v>0.2154296233438862</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1493143118802834</v>
+        <v>0.1456096630337026</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06966336527347826</v>
+        <v>0.06747876186211915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.162773891731093</v>
+        <v>0.166357222371283</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2212275745280245</v>
+        <v>0.2180934103700874</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1754009814180107</v>
+        <v>0.1752158951503904</v>
       </c>
     </row>
     <row r="22">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003781976270310106</v>
+        <v>0.003845165571293088</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04967420629224576</v>
+        <v>0.04997313553312964</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0509609108448644</v>
+        <v>0.05032461015124764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.283242583855099</v>
+        <v>0.2832567355548337</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1035816230536537</v>
+        <v>0.1049838863414742</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1209481767004105</v>
+        <v>0.1180371025309034</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1879696324973422</v>
+        <v>0.1893885433920571</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01761977859871773</v>
+        <v>0.01811016493594389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08147767109031817</v>
+        <v>0.08011917445638607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08697559739336211</v>
+        <v>0.0865762566026357</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2455581971863282</v>
+        <v>0.2444332183973768</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01706631001879627</v>
+        <v>0.01794031102148534</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08777174924877915</v>
+        <v>0.08521834367002212</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08503163657066216</v>
+        <v>0.08476700278524392</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3407590415147785</v>
+        <v>0.3400785869379191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.154794321656047</v>
+        <v>0.1579866813596432</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.173770746198743</v>
+        <v>0.1759920556954026</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2322008525326832</v>
+        <v>0.237559131120913</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03452674025061886</v>
+        <v>0.0354646579170117</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1126394178868625</v>
+        <v>0.1102149176064908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1173383601689982</v>
+        <v>0.1173132952784827</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2817994834651372</v>
+        <v>0.2821170236526747</v>
       </c>
     </row>
     <row r="25">
@@ -1868,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25254</v>
+        <v>25545</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>894</v>
+        <v>832</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10861</v>
+        <v>10514</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2160</v>
+        <v>2080</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>39357</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="7">
@@ -1906,40 +1906,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4696</v>
+        <v>4711</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6341</v>
+        <v>7097</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8523</v>
+        <v>7742</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42325</v>
+        <v>42802</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5090</v>
+        <v>5189</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6391</v>
+        <v>6448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8173</v>
+        <v>7113</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21557</v>
+        <v>21525</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6940</v>
+        <v>6152</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9931</v>
+        <v>9509</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13218</v>
+        <v>12436</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>59536</v>
+        <v>60280</v>
       </c>
     </row>
     <row r="8">
@@ -2046,34 +2046,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30946</v>
+        <v>29704</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3965</v>
+        <v>3754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3058</v>
+        <v>3919</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11325</v>
+        <v>11342</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1225</v>
+        <v>1157</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4496</v>
+        <v>4233</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5841</v>
+        <v>5827</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44787</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="11">
@@ -2085,37 +2085,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6023</v>
+        <v>5086</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8305</v>
+        <v>8371</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47691</v>
+        <v>47479</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9694</v>
+        <v>9257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17495</v>
+        <v>16497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13971</v>
+        <v>14781</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22008</v>
+        <v>21918</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10898</v>
+        <v>11249</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>19350</v>
+        <v>19337</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>19433</v>
+        <v>20292</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65560</v>
+        <v>66075</v>
       </c>
     </row>
     <row r="12">
@@ -2221,35 +2221,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6748</v>
+        <v>6399</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6433</v>
+        <v>6106</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36895</v>
+        <v>36849</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1046</v>
+        <v>1004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8731</v>
+        <v>8352</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8205</v>
+        <v>8138</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8787</v>
+        <v>9182</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>48116</v>
+        <v>48628</v>
       </c>
     </row>
     <row r="15">
@@ -2260,38 +2260,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5737</v>
+        <v>5996</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23204</v>
+        <v>22228</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21804</v>
+        <v>20222</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56760</v>
+        <v>57710</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6199</v>
+        <v>7002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11111</v>
+        <v>11868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18373</v>
+        <v>17756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5581</v>
+        <v>5308</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24500</v>
+        <v>26010</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27113</v>
+        <v>26363</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>70352</v>
+        <v>71029</v>
       </c>
     </row>
     <row r="16">
@@ -2394,40 +2394,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16373</v>
+        <v>16990</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21264</v>
+        <v>21109</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77468</v>
+        <v>77343</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3523</v>
+        <v>3750</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24074</v>
+        <v>24357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17921</v>
+        <v>17202</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29471</v>
+        <v>29006</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5606</v>
+        <v>5047</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>46007</v>
+        <v>44222</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43420</v>
+        <v>43749</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>110969</v>
+        <v>111703</v>
       </c>
     </row>
     <row r="19">
@@ -2438,40 +2438,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7928</v>
+        <v>7747</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37046</v>
+        <v>38342</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45077</v>
+        <v>42678</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>106790</v>
+        <v>107033</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14255</v>
+        <v>14387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44594</v>
+        <v>44840</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37952</v>
+        <v>35637</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45204</v>
+        <v>45324</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17584</v>
+        <v>18318</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>76421</v>
+        <v>74788</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>73771</v>
+        <v>71844</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>146263</v>
+        <v>144224</v>
       </c>
     </row>
     <row r="20">
@@ -2577,37 +2577,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5611</v>
+        <v>6057</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3932</v>
+        <v>4061</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>42559</v>
+        <v>41899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>11611</v>
+        <v>12191</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16935</v>
+        <v>16907</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52129</v>
+        <v>50733</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>21503</v>
+        <v>21219</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24609</v>
+        <v>23750</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>100206</v>
+        <v>99352</v>
       </c>
     </row>
     <row r="23">
@@ -2618,40 +2618,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4326</v>
+        <v>4456</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20377</v>
+        <v>19185</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16563</v>
+        <v>15831</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>63646</v>
+        <v>63539</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9481</v>
+        <v>10281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>28419</v>
+        <v>28727</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38249</v>
+        <v>37692</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>72418</v>
+        <v>72022</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10176</v>
+        <v>10671</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42645</v>
+        <v>43525</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>47974</v>
+        <v>47667</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>130484</v>
+        <v>129728</v>
       </c>
     </row>
     <row r="24">
@@ -2755,37 +2755,37 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>936</v>
+        <v>997</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2875</v>
+        <v>3201</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5751</v>
+        <v>5723</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>21481</v>
+        <v>21264</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>29097</v>
+        <v>28518</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>16350</v>
+        <v>16426</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6171</v>
+        <v>5859</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>23850</v>
+        <v>24620</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>31553</v>
+        <v>30845</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22082</v>
+        <v>21709</v>
       </c>
     </row>
     <row r="27">
@@ -2797,37 +2797,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>9156</v>
+        <v>8542</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5228</v>
+        <v>5223</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9038</v>
+        <v>9203</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19793</v>
+        <v>19461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>42721</v>
+        <v>41545</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>51880</v>
+        <v>53572</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>31564</v>
+        <v>30781</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19745</v>
+        <v>19126</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>46442</v>
+        <v>47465</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>56881</v>
+        <v>56075</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>38907</v>
+        <v>38866</v>
       </c>
     </row>
     <row r="28">
@@ -2930,40 +2930,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2784</v>
+        <v>2830</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43172</v>
+        <v>43432</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>45813</v>
+        <v>45241</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>243596</v>
+        <v>243608</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>77180</v>
+        <v>78225</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>88842</v>
+        <v>86704</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>148362</v>
+        <v>149482</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23120</v>
+        <v>23763</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>131523</v>
+        <v>129330</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>142077</v>
+        <v>141424</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>405003</v>
+        <v>403147</v>
       </c>
     </row>
     <row r="31">
@@ -2974,40 +2974,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12562</v>
+        <v>13205</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>76283</v>
+        <v>74064</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>76441</v>
+        <v>76204</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>293062</v>
+        <v>292477</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>115340</v>
+        <v>117718</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>127643</v>
+        <v>129274</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>183273</v>
+        <v>187502</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45304</v>
+        <v>46535</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>181825</v>
+        <v>177911</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>191675</v>
+        <v>191634</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>464776</v>
+        <v>465300</v>
       </c>
     </row>
     <row r="32">
